--- a/BPS_FH_Dataset/1/phrases.xlsx
+++ b/BPS_FH_Dataset/1/phrases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\1non\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Documents\GitHub\functional-harmony\BPS_FH_Dataset\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343FF9D-4E22-4C94-861E-2037CB5B2309}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -604,19 +605,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
         <v>-1</v>
       </c>
@@ -633,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>31</v>
       </c>
@@ -650,7 +651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>56</v>
       </c>
@@ -667,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>79</v>
       </c>
@@ -684,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -701,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>128</v>
       </c>
@@ -718,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>144</v>
       </c>
@@ -735,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>162</v>
       </c>
@@ -752,7 +753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>170</v>
       </c>
@@ -769,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>178</v>
       </c>
@@ -786,13 +787,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
-        <f>A1+192</f>
+        <f t="shared" ref="A11:B20" si="0">A1+192</f>
         <v>191</v>
       </c>
       <c r="B11">
-        <f>B1+192</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -805,13 +806,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
-        <f>A2+192</f>
+        <f t="shared" si="0"/>
         <v>223</v>
       </c>
       <c r="B12">
-        <f>B2+192</f>
+        <f t="shared" si="0"/>
         <v>248</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -824,13 +825,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
-        <f>A3+192</f>
+        <f t="shared" si="0"/>
         <v>248</v>
       </c>
       <c r="B13">
-        <f>B3+192</f>
+        <f t="shared" si="0"/>
         <v>268.5</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -843,13 +844,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
-        <f>A4+192</f>
+        <f t="shared" si="0"/>
         <v>271</v>
       </c>
       <c r="B14">
-        <f>B4+192</f>
+        <f t="shared" si="0"/>
         <v>292.5</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -862,13 +863,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
-        <f>A5+192</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="B15">
-        <f>B5+192</f>
+        <f t="shared" si="0"/>
         <v>320.5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -881,13 +882,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
-        <f>A6+192</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="B16">
-        <f>B6+192</f>
+        <f t="shared" si="0"/>
         <v>336.5</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -900,13 +901,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
-        <f>A7+192</f>
+        <f t="shared" si="0"/>
         <v>336</v>
       </c>
       <c r="B17">
-        <f>B7+192</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -919,13 +920,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
-        <f>A8+192</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="B18">
-        <f>B8+192</f>
+        <f t="shared" si="0"/>
         <v>362</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -938,13 +939,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
-        <f>A9+192</f>
+        <f t="shared" si="0"/>
         <v>362</v>
       </c>
       <c r="B19">
-        <f>B9+192</f>
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -957,13 +958,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <f>A10+192</f>
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
       <c r="B20" s="1">
-        <f>B10+192</f>
+        <f t="shared" si="0"/>
         <v>381</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -976,7 +977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>383</v>
       </c>
@@ -993,7 +994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>396</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>411</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>432</v>
       </c>
@@ -1044,9 +1045,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="B25" s="7">
         <v>459</v>
@@ -1061,7 +1062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>459</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>467</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>475</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>515</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>531</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>547</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>568</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>592</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>623</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>648</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>667</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>688</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>716</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>732</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>750</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>758</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>766</v>
       </c>
